--- a/biology/Histoire de la zoologie et de la botanique/Sébastien_Gérardin/Sébastien_Gérardin.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Sébastien_Gérardin/Sébastien_Gérardin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9bastien_G%C3%A9rardin</t>
+          <t>Sébastien_Gérardin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sébastien Gérardin est un naturaliste et prêtre français, né le 9 mars 1751 à Mirecourt[1] et mort le 17 juillet 1816 à Paris.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sébastien Gérardin est un naturaliste et prêtre français, né le 9 mars 1751 à Mirecourt et mort le 17 juillet 1816 à Paris.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%A9bastien_G%C3%A9rardin</t>
+          <t>Sébastien_Gérardin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est fils d'un luthier[2]. Il se passionne pour l’histoire naturelle et l'enseigne à l’École centrale d’Épinal en 1776. Il y constitue un cabinet de curiosités ainsi que le jardin botanique.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est fils d'un luthier. Il se passionne pour l’histoire naturelle et l'enseigne à l’École centrale d’Épinal en 1776. Il y constitue un cabinet de curiosités ainsi que le jardin botanique.
 Il devient chanoine à Poussay en 1790. Il est employé par le Muséum national d'histoire naturelle à partir de 1803.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S%C3%A9bastien_G%C3%A9rardin</t>
+          <t>Sébastien_Gérardin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,14 +557,16 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1784 : Lettre d'un Anglois à un François sur la découverte du magnétisme animal, et observations sur cette lettre, édité par A. Bouillon, site Internet Archive[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1784 : Lettre d'un Anglois à un François sur la découverte du magnétisme animal, et observations sur cette lettre, édité par A. Bouillon, site Internet Archive.
 1805 : Tableau élémentaire de botanique, Paris, Perlet, et chez l'auteur.
 1806 : Tableau élémentaire d'ornithologie, ou Histoire naturelle des oiseaux que l'on rencontre communément en France, Paris, Tourneisen filsRéédition en 1822
 Tome 1 en ligne sur Google Livres
 Tome 2 en ligne sur Google Livres
-1810 : Essai de physiologie végétale : ouvrage dans lequel sont expliquées toutes les parties des végétaux : accompagné de planches et de tableaux méthodiques, représentant les trois systèmes de Tournefort, de Linné et de Jussieu sur Google Livres[4], Paris, F. Schöll, 2 vol. (OCLC 457754884)
+1810 : Essai de physiologie végétale : ouvrage dans lequel sont expliquées toutes les parties des végétaux : accompagné de planches et de tableaux méthodiques, représentant les trois systèmes de Tournefort, de Linné et de Jussieu sur Google Livres, Paris, F. Schöll, 2 vol. (OCLC 457754884)
 1817 : Dictionnaire raisonné de botanique publié, revu et augmenté… par Mr N.-A. Desvaux, Paris, Dondey-Dupré, 746 p.Réédition en 1822
 Selon le Michaud, il a également laissé des manuscrits : Les papillons de Lorraine et Abrégé de l'ornithologie de Buffon.
 </t>
